--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H2">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,22 +564,22 @@
         <v>0.614446</v>
       </c>
       <c r="O2">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P2">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q2">
-        <v>1.501544561245556</v>
+        <v>1.101054256731334</v>
       </c>
       <c r="R2">
-        <v>13.51390105121</v>
+        <v>9.909488310582001</v>
       </c>
       <c r="S2">
-        <v>0.01997622734504188</v>
+        <v>0.01535769690172973</v>
       </c>
       <c r="T2">
-        <v>0.01997622734504188</v>
+        <v>0.01535769690172973</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H3">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I3">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J3">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N3">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O3">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P3">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q3">
-        <v>5.162204270441113</v>
+        <v>3.484260450533333</v>
       </c>
       <c r="R3">
-        <v>46.45983843397001</v>
+        <v>31.3583440548</v>
       </c>
       <c r="S3">
-        <v>0.06867686032729983</v>
+        <v>0.0485990727512642</v>
       </c>
       <c r="T3">
-        <v>0.06867686032729983</v>
+        <v>0.0485990727512642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H4">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I4">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J4">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N4">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O4">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P4">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q4">
-        <v>12.05513411003945</v>
+        <v>10.150686078995</v>
       </c>
       <c r="R4">
-        <v>108.496206990355</v>
+        <v>91.356174710955</v>
       </c>
       <c r="S4">
-        <v>0.1603789230586379</v>
+        <v>0.1415835406772796</v>
       </c>
       <c r="T4">
-        <v>0.1603789230586379</v>
+        <v>0.1415835406772796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H5">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I5">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J5">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N5">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O5">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P5">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q5">
-        <v>5.351845610097222</v>
+        <v>2.144836116703</v>
       </c>
       <c r="R5">
-        <v>48.166610490875</v>
+        <v>19.303525050327</v>
       </c>
       <c r="S5">
-        <v>0.07119980810571692</v>
+        <v>0.02991654841968906</v>
       </c>
       <c r="T5">
-        <v>0.07119980810571692</v>
+        <v>0.02991654841968906</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.488444</v>
       </c>
       <c r="I6">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J6">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,10 +812,10 @@
         <v>0.614446</v>
       </c>
       <c r="O6">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P6">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q6">
         <v>0.03334694022488889</v>
@@ -824,10 +824,10 @@
         <v>0.300122462024</v>
       </c>
       <c r="S6">
-        <v>0.0004436405527927346</v>
+        <v>0.00046512894114255</v>
       </c>
       <c r="T6">
-        <v>0.0004436405527927347</v>
+        <v>0.00046512894114255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.488444</v>
       </c>
       <c r="I7">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J7">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N7">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O7">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P7">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q7">
-        <v>0.1146444279297778</v>
+        <v>0.1055256126222222</v>
       </c>
       <c r="R7">
-        <v>1.031799851368</v>
+        <v>0.9497305135999999</v>
       </c>
       <c r="S7">
-        <v>0.001525204922501789</v>
+        <v>0.001471889658582812</v>
       </c>
       <c r="T7">
-        <v>0.001525204922501789</v>
+        <v>0.001471889658582811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.488444</v>
       </c>
       <c r="I8">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J8">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N8">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O8">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P8">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q8">
-        <v>0.2677255453791111</v>
+        <v>0.3074274676733333</v>
       </c>
       <c r="R8">
-        <v>2.409529908412</v>
+        <v>2.76684720906</v>
       </c>
       <c r="S8">
-        <v>0.003561763332639343</v>
+        <v>0.004288051963769323</v>
       </c>
       <c r="T8">
-        <v>0.003561763332639344</v>
+        <v>0.004288051963769323</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.488444</v>
       </c>
       <c r="I9">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J9">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N9">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O9">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P9">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q9">
-        <v>0.1188560634555555</v>
+        <v>0.06495930726266666</v>
       </c>
       <c r="R9">
-        <v>1.0697045711</v>
+        <v>0.584633765364</v>
       </c>
       <c r="S9">
-        <v>0.001581235619777667</v>
+        <v>0.0009060637527963294</v>
       </c>
       <c r="T9">
-        <v>0.001581235619777667</v>
+        <v>0.0009060637527963294</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H10">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I10">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J10">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1060,22 +1060,22 @@
         <v>0.614446</v>
       </c>
       <c r="O10">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P10">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q10">
-        <v>1.516159637258</v>
+        <v>2.046954549187333</v>
       </c>
       <c r="R10">
-        <v>13.645436735322</v>
+        <v>18.422590942686</v>
       </c>
       <c r="S10">
-        <v>0.02017066318705743</v>
+        <v>0.02855127923610276</v>
       </c>
       <c r="T10">
-        <v>0.02017066318705744</v>
+        <v>0.02855127923610276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H11">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I11">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J11">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N11">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O11">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P11">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q11">
-        <v>5.212449870706001</v>
+        <v>6.477539808933333</v>
       </c>
       <c r="R11">
-        <v>46.91204883635401</v>
+        <v>58.29785828039999</v>
       </c>
       <c r="S11">
-        <v>0.0693453170350694</v>
+        <v>0.09034985555553819</v>
       </c>
       <c r="T11">
-        <v>0.06934531703506941</v>
+        <v>0.09034985555553818</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H12">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I12">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J12">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N12">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O12">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P12">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q12">
-        <v>12.172471088179</v>
+        <v>18.870998336135</v>
       </c>
       <c r="R12">
-        <v>109.552239793611</v>
+        <v>169.838985025215</v>
       </c>
       <c r="S12">
-        <v>0.1619399490926249</v>
+        <v>0.2632159776937538</v>
       </c>
       <c r="T12">
-        <v>0.1619399490926249</v>
+        <v>0.2632159776937538</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H13">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I13">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J13">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N13">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O13">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P13">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q13">
-        <v>5.403937058074999</v>
+        <v>3.987434787619</v>
       </c>
       <c r="R13">
-        <v>48.63543352267499</v>
+        <v>35.886913088571</v>
       </c>
       <c r="S13">
-        <v>0.07189282157624177</v>
+        <v>0.05561743620651402</v>
       </c>
       <c r="T13">
-        <v>0.07189282157624179</v>
+        <v>0.05561743620651402</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H14">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I14">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J14">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1308,22 +1308,22 @@
         <v>0.614446</v>
       </c>
       <c r="O14">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P14">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q14">
-        <v>0.3307752613542222</v>
+        <v>0.1589633929317778</v>
       </c>
       <c r="R14">
-        <v>2.976977352188</v>
+        <v>1.430670536386</v>
       </c>
       <c r="S14">
-        <v>0.004400563254310909</v>
+        <v>0.00221724914298434</v>
       </c>
       <c r="T14">
-        <v>0.00440056325431091</v>
+        <v>0.002217249142984341</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H15">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I15">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J15">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N15">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O15">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P15">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q15">
-        <v>1.137182012968445</v>
+        <v>0.5030359400444444</v>
       </c>
       <c r="R15">
-        <v>10.234638116716</v>
+        <v>4.5273234604</v>
       </c>
       <c r="S15">
-        <v>0.01512882601692901</v>
+        <v>0.007016433069169221</v>
       </c>
       <c r="T15">
-        <v>0.01512882601692901</v>
+        <v>0.007016433069169221</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H16">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I16">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J16">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N16">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O16">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P16">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q16">
-        <v>2.655625573043778</v>
+        <v>1.465493176051667</v>
       </c>
       <c r="R16">
-        <v>23.900630157394</v>
+        <v>13.189438584465</v>
       </c>
       <c r="S16">
-        <v>0.03532987402413439</v>
+        <v>0.02044095454130426</v>
       </c>
       <c r="T16">
-        <v>0.0353298740241344</v>
+        <v>0.02044095454130426</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H17">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I17">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J17">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N17">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O17">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P17">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q17">
-        <v>1.178958104938889</v>
+        <v>0.3096581520023333</v>
       </c>
       <c r="R17">
-        <v>10.61062294445</v>
+        <v>2.786923368021</v>
       </c>
       <c r="S17">
-        <v>0.01568460619976735</v>
+        <v>0.004319165938034244</v>
       </c>
       <c r="T17">
-        <v>0.01568460619976735</v>
+        <v>0.004319165938034245</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H18">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I18">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J18">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.614446</v>
       </c>
       <c r="O18">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P18">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q18">
-        <v>1.307103534176222</v>
+        <v>1.335927127764444</v>
       </c>
       <c r="R18">
-        <v>11.763931807586</v>
+        <v>12.02334414988</v>
       </c>
       <c r="S18">
-        <v>0.01738942555294692</v>
+        <v>0.01863374469112194</v>
       </c>
       <c r="T18">
-        <v>0.01738942555294692</v>
+        <v>0.01863374469112194</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H19">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I19">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J19">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N19">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O19">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P19">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q19">
-        <v>4.493729736822446</v>
+        <v>4.227510159111111</v>
       </c>
       <c r="R19">
-        <v>40.44356763140201</v>
+        <v>38.047591432</v>
       </c>
       <c r="S19">
-        <v>0.0597836182600379</v>
+        <v>0.05896604938012048</v>
       </c>
       <c r="T19">
-        <v>0.0597836182600379</v>
+        <v>0.05896604938012047</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H20">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I20">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J20">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N20">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O20">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P20">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q20">
-        <v>10.49406644790478</v>
+        <v>12.31599334496667</v>
       </c>
       <c r="R20">
-        <v>94.446598031143</v>
+        <v>110.8439401047</v>
       </c>
       <c r="S20">
-        <v>0.1396108131239402</v>
+        <v>0.1717856242590882</v>
       </c>
       <c r="T20">
-        <v>0.1396108131239402</v>
+        <v>0.1717856242590882</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H21">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I21">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J21">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N21">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O21">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P21">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q21">
-        <v>4.658813658863888</v>
+        <v>2.602364720353333</v>
       </c>
       <c r="R21">
-        <v>41.929322929775</v>
+        <v>23.42128248318</v>
       </c>
       <c r="S21">
-        <v>0.0619798594125319</v>
+        <v>0.0362982372200149</v>
       </c>
       <c r="T21">
-        <v>0.0619798594125319</v>
+        <v>0.0362982372200149</v>
       </c>
     </row>
   </sheetData>
